--- a/Luaban/Config/Datas/EnemyData.xlsx
+++ b/Luaban/Config/Datas/EnemyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="10350"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>##</t>
   </si>
@@ -30,6 +30,9 @@
     <t>hp</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -39,10 +42,19 @@
     <t>float</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>速度</t>
   </si>
   <si>
     <t>血量</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>NormalEnemy</t>
   </si>
 </sst>
 </file>
@@ -55,14 +67,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,48 +586,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,97 +640,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -730,30 +735,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1107,7 +1112,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1115,13 +1120,14 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="9" width="9" style="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="9" style="1"/>
     <col min="10" max="10" width="16.5833333333333" style="1" customWidth="1"/>
     <col min="11" max="11" width="26.3333333333333" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1134,33 +1140,42 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:5">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1170,8 +1185,11 @@
       <c r="D4" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:4">
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:5">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1181,8 +1199,11 @@
       <c r="D5" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="2:4">
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:5">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1191,6 +1212,9 @@
       </c>
       <c r="D6" s="1">
         <v>102</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:13">
@@ -1204,7 +1228,9 @@
       <c r="D7" s="1">
         <v>103</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1225,7 +1251,9 @@
       <c r="D8" s="1">
         <v>104</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1246,7 +1274,9 @@
       <c r="D9" s="1">
         <v>105</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1267,7 +1297,9 @@
       <c r="D10" s="1">
         <v>106</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1288,7 +1320,9 @@
       <c r="D11" s="1">
         <v>107</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>

--- a/Luaban/Config/Datas/EnemyData.xlsx
+++ b/Luaban/Config/Datas/EnemyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>##</t>
   </si>
@@ -31,6 +31,15 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>intervalType</t>
   </si>
   <si>
     <t>##type</t>
@@ -52,6 +61,15 @@
   </si>
   <si>
     <t>名字</t>
+  </si>
+  <si>
+    <t>敌人类型</t>
+  </si>
+  <si>
+    <t>出现间隔</t>
+  </si>
+  <si>
+    <t>生成间隔类型</t>
   </si>
   <si>
     <t>NormalEnemy</t>
@@ -731,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,7 +757,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1109,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1121,13 +1138,16 @@
     <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="9" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="16.5833333333333" style="1" customWidth="1"/>
     <col min="11" max="11" width="26.3333333333333" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1143,39 +1163,66 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:5">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:8">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1186,10 +1233,19 @@
         <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:5">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>200</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:8">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1200,10 +1256,19 @@
         <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="2:5">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>210</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:8">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1214,7 +1279,16 @@
         <v>102</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>220</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:13">
@@ -1229,16 +1303,22 @@
         <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>230</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:13">
       <c r="A8" s="3"/>
@@ -1252,16 +1332,22 @@
         <v>104</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>240</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:13">
       <c r="A9" s="4"/>
@@ -1275,16 +1361,22 @@
         <v>105</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>250</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:13">
       <c r="A10" s="4"/>
@@ -1298,16 +1390,22 @@
         <v>106</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>260</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:13">
       <c r="A11" s="3"/>
@@ -1321,58 +1419,508 @@
         <v>107</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>270</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:13">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>108</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>280</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:13">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>109</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>290</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:13">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
+        <v>110</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>300</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:13">
+      <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="12:13">
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="12:13">
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="12:13">
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="12:13">
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="12:13">
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="12:13">
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="12:13">
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="7:13">
-      <c r="G19" s="5"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="7:13">
-      <c r="G20" s="5"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="12:13">
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>111</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>310</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:13">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>112</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>320</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:13">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1">
+        <v>113</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1">
+        <v>330</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:13">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
+        <v>114</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1">
+        <v>340</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:13">
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
+        <v>115</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>350</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:13">
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <v>116</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>360</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:13">
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
+        <v>117</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="3">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1">
+        <v>370</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1">
+        <v>118</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="3">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1">
+        <v>380</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>119</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="3">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1">
+        <v>390</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
+        <v>120</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="3">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1">
+        <v>400</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <v>121</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="3">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1">
+        <v>410</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1">
+        <v>122</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="3">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1">
+        <v>420</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1">
+        <v>123</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="3">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1">
+        <v>430</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1">
+        <v>124</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="3">
+        <v>18</v>
+      </c>
+      <c r="G28" s="1">
+        <v>440</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1">
+        <v>125</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="3">
+        <v>19</v>
+      </c>
+      <c r="G29" s="1">
+        <v>450</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="1">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1">
+        <v>126</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="3">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1">
+        <v>460</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1">
+        <v>28</v>
+      </c>
+      <c r="D31" s="1">
+        <v>127</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="3">
+        <v>21</v>
+      </c>
+      <c r="G31" s="1">
+        <v>470</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Luaban/Config/Datas/EnemyData.xlsx
+++ b/Luaban/Config/Datas/EnemyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="19">
   <si>
     <t>##</t>
   </si>
@@ -1126,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1916,11 +1916,741 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="8:8">
-      <c r="H35" s="3"/>
-    </row>
-    <row r="39" spans="8:8">
-      <c r="H39" s="3"/>
+    <row r="32" spans="2:8">
+      <c r="B32" s="1">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1">
+        <v>128</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="3">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1">
+        <v>471</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="1">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1">
+        <v>129</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="3">
+        <v>23</v>
+      </c>
+      <c r="G33" s="1">
+        <v>472</v>
+      </c>
+      <c r="H33" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="1">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1">
+        <v>31</v>
+      </c>
+      <c r="D34" s="1">
+        <v>130</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="3">
+        <v>24</v>
+      </c>
+      <c r="G34" s="1">
+        <v>473</v>
+      </c>
+      <c r="H34" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="1">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <v>131</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="3">
+        <v>25</v>
+      </c>
+      <c r="G35" s="1">
+        <v>474</v>
+      </c>
+      <c r="H35" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="1">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1">
+        <v>132</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="3">
+        <v>26</v>
+      </c>
+      <c r="G36" s="1">
+        <v>475</v>
+      </c>
+      <c r="H36" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="1">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1">
+        <v>133</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="3">
+        <v>27</v>
+      </c>
+      <c r="G37" s="1">
+        <v>476</v>
+      </c>
+      <c r="H37" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="1">
+        <v>35</v>
+      </c>
+      <c r="C38" s="1">
+        <v>35</v>
+      </c>
+      <c r="D38" s="1">
+        <v>134</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="3">
+        <v>28</v>
+      </c>
+      <c r="G38" s="1">
+        <v>477</v>
+      </c>
+      <c r="H38" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="1">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1">
+        <v>135</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="3">
+        <v>29</v>
+      </c>
+      <c r="G39" s="1">
+        <v>478</v>
+      </c>
+      <c r="H39" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="1">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1">
+        <v>136</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="3">
+        <v>30</v>
+      </c>
+      <c r="G40" s="1">
+        <v>479</v>
+      </c>
+      <c r="H40" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="1">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1">
+        <v>38</v>
+      </c>
+      <c r="D41" s="1">
+        <v>137</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="3">
+        <v>31</v>
+      </c>
+      <c r="G41" s="1">
+        <v>480</v>
+      </c>
+      <c r="H41" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="1">
+        <v>39</v>
+      </c>
+      <c r="C42" s="1">
+        <v>39</v>
+      </c>
+      <c r="D42" s="1">
+        <v>138</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="3">
+        <v>32</v>
+      </c>
+      <c r="G42" s="1">
+        <v>481</v>
+      </c>
+      <c r="H42" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="1">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1">
+        <v>40</v>
+      </c>
+      <c r="D43" s="1">
+        <v>139</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="3">
+        <v>33</v>
+      </c>
+      <c r="G43" s="1">
+        <v>482</v>
+      </c>
+      <c r="H43" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="1">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1">
+        <v>41</v>
+      </c>
+      <c r="D44" s="1">
+        <v>140</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="3">
+        <v>34</v>
+      </c>
+      <c r="G44" s="1">
+        <v>483</v>
+      </c>
+      <c r="H44" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="1">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1">
+        <v>42</v>
+      </c>
+      <c r="D45" s="1">
+        <v>141</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="3">
+        <v>35</v>
+      </c>
+      <c r="G45" s="1">
+        <v>484</v>
+      </c>
+      <c r="H45" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="1">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43</v>
+      </c>
+      <c r="D46" s="1">
+        <v>142</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="3">
+        <v>36</v>
+      </c>
+      <c r="G46" s="1">
+        <v>485</v>
+      </c>
+      <c r="H46" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="1">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1">
+        <v>143</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="3">
+        <v>37</v>
+      </c>
+      <c r="G47" s="1">
+        <v>486</v>
+      </c>
+      <c r="H47" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="1">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45</v>
+      </c>
+      <c r="D48" s="1">
+        <v>144</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="3">
+        <v>38</v>
+      </c>
+      <c r="G48" s="1">
+        <v>487</v>
+      </c>
+      <c r="H48" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="1">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1">
+        <v>46</v>
+      </c>
+      <c r="D49" s="1">
+        <v>145</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="3">
+        <v>39</v>
+      </c>
+      <c r="G49" s="1">
+        <v>488</v>
+      </c>
+      <c r="H49" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="1">
+        <v>47</v>
+      </c>
+      <c r="C50" s="1">
+        <v>47</v>
+      </c>
+      <c r="D50" s="1">
+        <v>146</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="3">
+        <v>40</v>
+      </c>
+      <c r="G50" s="1">
+        <v>489</v>
+      </c>
+      <c r="H50" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="1">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1">
+        <v>48</v>
+      </c>
+      <c r="D51" s="1">
+        <v>147</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="3">
+        <v>41</v>
+      </c>
+      <c r="G51" s="1">
+        <v>490</v>
+      </c>
+      <c r="H51" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="1">
+        <v>49</v>
+      </c>
+      <c r="C52" s="1">
+        <v>49</v>
+      </c>
+      <c r="D52" s="1">
+        <v>148</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="3">
+        <v>42</v>
+      </c>
+      <c r="G52" s="1">
+        <v>491</v>
+      </c>
+      <c r="H52" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="1">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1">
+        <v>50</v>
+      </c>
+      <c r="D53" s="1">
+        <v>149</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="3">
+        <v>43</v>
+      </c>
+      <c r="G53" s="1">
+        <v>492</v>
+      </c>
+      <c r="H53" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="1">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1">
+        <v>51</v>
+      </c>
+      <c r="D54" s="1">
+        <v>150</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="3">
+        <v>44</v>
+      </c>
+      <c r="G54" s="1">
+        <v>493</v>
+      </c>
+      <c r="H54" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="1">
+        <v>52</v>
+      </c>
+      <c r="C55" s="1">
+        <v>52</v>
+      </c>
+      <c r="D55" s="1">
+        <v>151</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="3">
+        <v>45</v>
+      </c>
+      <c r="G55" s="1">
+        <v>494</v>
+      </c>
+      <c r="H55" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="1">
+        <v>53</v>
+      </c>
+      <c r="C56" s="1">
+        <v>53</v>
+      </c>
+      <c r="D56" s="1">
+        <v>152</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="3">
+        <v>46</v>
+      </c>
+      <c r="G56" s="1">
+        <v>495</v>
+      </c>
+      <c r="H56" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="1">
+        <v>54</v>
+      </c>
+      <c r="C57" s="1">
+        <v>54</v>
+      </c>
+      <c r="D57" s="1">
+        <v>153</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="3">
+        <v>47</v>
+      </c>
+      <c r="G57" s="1">
+        <v>496</v>
+      </c>
+      <c r="H57" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="1">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1">
+        <v>55</v>
+      </c>
+      <c r="D58" s="1">
+        <v>154</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="3">
+        <v>48</v>
+      </c>
+      <c r="G58" s="1">
+        <v>497</v>
+      </c>
+      <c r="H58" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="1">
+        <v>56</v>
+      </c>
+      <c r="C59" s="1">
+        <v>56</v>
+      </c>
+      <c r="D59" s="1">
+        <v>155</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="3">
+        <v>49</v>
+      </c>
+      <c r="G59" s="1">
+        <v>498</v>
+      </c>
+      <c r="H59" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="1">
+        <v>57</v>
+      </c>
+      <c r="C60" s="1">
+        <v>57</v>
+      </c>
+      <c r="D60" s="1">
+        <v>156</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="3">
+        <v>50</v>
+      </c>
+      <c r="G60" s="1">
+        <v>499</v>
+      </c>
+      <c r="H60" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="1">
+        <v>58</v>
+      </c>
+      <c r="C61" s="1">
+        <v>58</v>
+      </c>
+      <c r="D61" s="1">
+        <v>157</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="3">
+        <v>51</v>
+      </c>
+      <c r="G61" s="1">
+        <v>500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="1">
+        <v>59</v>
+      </c>
+      <c r="C62" s="1">
+        <v>59</v>
+      </c>
+      <c r="D62" s="1">
+        <v>158</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="3">
+        <v>52</v>
+      </c>
+      <c r="G62" s="1">
+        <v>501</v>
+      </c>
+      <c r="H62" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="1">
+        <v>60</v>
+      </c>
+      <c r="C63" s="1">
+        <v>60</v>
+      </c>
+      <c r="D63" s="1">
+        <v>159</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="3">
+        <v>53</v>
+      </c>
+      <c r="G63" s="1">
+        <v>502</v>
+      </c>
+      <c r="H63" s="3">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Luaban/Config/Datas/EnemyData.xlsx
+++ b/Luaban/Config/Datas/EnemyData.xlsx
@@ -1128,8 +1128,8 @@
   <sheetPr/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1450,7 +1450,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>280</v>
@@ -1475,7 +1475,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>290</v>
@@ -1499,8 +1499,8 @@
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="3">
-        <v>4</v>
+      <c r="F14" s="4">
+        <v>1</v>
       </c>
       <c r="G14" s="1">
         <v>300</v>
@@ -1524,8 +1524,8 @@
       <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="3">
-        <v>5</v>
+      <c r="F15" s="4">
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <v>310</v>
@@ -1550,7 +1550,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <v>320</v>
@@ -1575,7 +1575,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
         <v>330</v>
@@ -1600,7 +1600,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
         <v>340</v>
@@ -1624,8 +1624,8 @@
       <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="3">
-        <v>9</v>
+      <c r="F19" s="4">
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <v>350</v>
@@ -1649,8 +1649,8 @@
       <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="3">
-        <v>10</v>
+      <c r="F20" s="4">
+        <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>360</v>
@@ -1675,7 +1675,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>370</v>
@@ -1700,7 +1700,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <v>380</v>
@@ -1723,7 +1723,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
         <v>390</v>
@@ -1745,8 +1745,8 @@
       <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="3">
-        <v>14</v>
+      <c r="F24" s="4">
+        <v>1</v>
       </c>
       <c r="G24" s="1">
         <v>400</v>
@@ -1768,8 +1768,8 @@
       <c r="E25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="3">
-        <v>15</v>
+      <c r="F25" s="4">
+        <v>1</v>
       </c>
       <c r="G25" s="1">
         <v>410</v>
@@ -1792,7 +1792,7 @@
         <v>18</v>
       </c>
       <c r="F26" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
         <v>420</v>
@@ -1815,7 +1815,7 @@
         <v>18</v>
       </c>
       <c r="F27" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1">
         <v>430</v>
@@ -1838,7 +1838,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1">
         <v>440</v>
@@ -1861,7 +1861,7 @@
         <v>18</v>
       </c>
       <c r="F29" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
         <v>450</v>
@@ -1884,7 +1884,7 @@
         <v>18</v>
       </c>
       <c r="F30" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1">
         <v>460</v>
@@ -1906,8 +1906,8 @@
       <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="3">
-        <v>21</v>
+      <c r="F31" s="4">
+        <v>1</v>
       </c>
       <c r="G31" s="1">
         <v>470</v>
@@ -1929,8 +1929,8 @@
       <c r="E32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="3">
-        <v>22</v>
+      <c r="F32" s="4">
+        <v>1</v>
       </c>
       <c r="G32" s="1">
         <v>471</v>
@@ -1953,7 +1953,7 @@
         <v>18</v>
       </c>
       <c r="F33" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1">
         <v>472</v>
@@ -1976,7 +1976,7 @@
         <v>18</v>
       </c>
       <c r="F34" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1">
         <v>473</v>
@@ -1999,7 +1999,7 @@
         <v>18</v>
       </c>
       <c r="F35" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1">
         <v>474</v>
@@ -2021,8 +2021,8 @@
       <c r="E36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="3">
-        <v>26</v>
+      <c r="F36" s="4">
+        <v>1</v>
       </c>
       <c r="G36" s="1">
         <v>475</v>
@@ -2044,8 +2044,8 @@
       <c r="E37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="3">
-        <v>27</v>
+      <c r="F37" s="4">
+        <v>1</v>
       </c>
       <c r="G37" s="1">
         <v>476</v>
@@ -2068,7 +2068,7 @@
         <v>18</v>
       </c>
       <c r="F38" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1">
         <v>477</v>
@@ -2091,7 +2091,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G39" s="1">
         <v>478</v>
@@ -2114,7 +2114,7 @@
         <v>18</v>
       </c>
       <c r="F40" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G40" s="1">
         <v>479</v>
@@ -2136,8 +2136,8 @@
       <c r="E41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="3">
-        <v>31</v>
+      <c r="F41" s="4">
+        <v>1</v>
       </c>
       <c r="G41" s="1">
         <v>480</v>
@@ -2159,8 +2159,8 @@
       <c r="E42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="3">
-        <v>32</v>
+      <c r="F42" s="4">
+        <v>1</v>
       </c>
       <c r="G42" s="1">
         <v>481</v>
@@ -2183,7 +2183,7 @@
         <v>18</v>
       </c>
       <c r="F43" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1">
         <v>482</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="F44" s="3">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1">
         <v>483</v>
@@ -2229,7 +2229,7 @@
         <v>18</v>
       </c>
       <c r="F45" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1">
         <v>484</v>
@@ -2251,8 +2251,8 @@
       <c r="E46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="3">
-        <v>36</v>
+      <c r="F46" s="4">
+        <v>1</v>
       </c>
       <c r="G46" s="1">
         <v>485</v>
@@ -2274,8 +2274,8 @@
       <c r="E47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="3">
-        <v>37</v>
+      <c r="F47" s="4">
+        <v>1</v>
       </c>
       <c r="G47" s="1">
         <v>486</v>
@@ -2298,7 +2298,7 @@
         <v>18</v>
       </c>
       <c r="F48" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1">
         <v>487</v>
@@ -2321,7 +2321,7 @@
         <v>18</v>
       </c>
       <c r="F49" s="3">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G49" s="1">
         <v>488</v>
@@ -2344,7 +2344,7 @@
         <v>18</v>
       </c>
       <c r="F50" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1">
         <v>489</v>
@@ -2367,7 +2367,7 @@
         <v>18</v>
       </c>
       <c r="F51" s="3">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
         <v>490</v>
@@ -2390,7 +2390,7 @@
         <v>18</v>
       </c>
       <c r="F52" s="3">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1">
         <v>491</v>
@@ -2412,8 +2412,8 @@
       <c r="E53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="3">
-        <v>43</v>
+      <c r="F53" s="4">
+        <v>1</v>
       </c>
       <c r="G53" s="1">
         <v>492</v>
@@ -2435,8 +2435,8 @@
       <c r="E54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="3">
-        <v>44</v>
+      <c r="F54" s="4">
+        <v>1</v>
       </c>
       <c r="G54" s="1">
         <v>493</v>
@@ -2459,7 +2459,7 @@
         <v>18</v>
       </c>
       <c r="F55" s="3">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1">
         <v>494</v>
@@ -2482,7 +2482,7 @@
         <v>18</v>
       </c>
       <c r="F56" s="3">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="G56" s="1">
         <v>495</v>
@@ -2505,7 +2505,7 @@
         <v>18</v>
       </c>
       <c r="F57" s="3">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1">
         <v>496</v>
@@ -2527,8 +2527,8 @@
       <c r="E58" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="3">
-        <v>48</v>
+      <c r="F58" s="4">
+        <v>1</v>
       </c>
       <c r="G58" s="1">
         <v>497</v>
@@ -2550,8 +2550,8 @@
       <c r="E59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="3">
-        <v>49</v>
+      <c r="F59" s="4">
+        <v>1</v>
       </c>
       <c r="G59" s="1">
         <v>498</v>
@@ -2574,7 +2574,7 @@
         <v>18</v>
       </c>
       <c r="F60" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G60" s="1">
         <v>499</v>
@@ -2597,7 +2597,7 @@
         <v>18</v>
       </c>
       <c r="F61" s="3">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="G61" s="1">
         <v>500</v>
@@ -2620,7 +2620,7 @@
         <v>18</v>
       </c>
       <c r="F62" s="3">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="G62" s="1">
         <v>501</v>
@@ -2642,8 +2642,8 @@
       <c r="E63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F63" s="3">
-        <v>53</v>
+      <c r="F63" s="4">
+        <v>1</v>
       </c>
       <c r="G63" s="1">
         <v>502</v>

--- a/Luaban/Config/Datas/EnemyData.xlsx
+++ b/Luaban/Config/Datas/EnemyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="21600" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1128,22 +1128,22 @@
   <sheetPr/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8727272727273" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6272727272727" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54545454545454" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7545454545455" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="16.5833333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5818181818182" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.3363636363636" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -1285,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>230</v>
+        <v>700</v>
       </c>
       <c r="H7" s="3">
         <v>2</v>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>260</v>
+        <v>1300</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>270</v>
+        <v>1500</v>
       </c>
       <c r="H11" s="3">
         <v>2</v>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>280</v>
+        <v>1700</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>290</v>
+        <v>1900</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>310</v>
+        <v>2300</v>
       </c>
       <c r="H15" s="3">
         <v>2</v>
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>320</v>
+        <v>2500</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>330</v>
+        <v>2700</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>340</v>
+        <v>2900</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>350</v>
+        <v>3100</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>360</v>
+        <v>3300</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>370</v>
+        <v>3500</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>380</v>
+        <v>3700</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>390</v>
+        <v>3900</v>
       </c>
       <c r="H23" s="3">
         <v>2</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>400</v>
+        <v>4100</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>410</v>
+        <v>4300</v>
       </c>
       <c r="H25" s="1">
         <v>2</v>
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>420</v>
+        <v>4500</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>430</v>
+        <v>4700</v>
       </c>
       <c r="H27" s="3">
         <v>2</v>
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>440</v>
+        <v>4900</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>450</v>
+        <v>5100</v>
       </c>
       <c r="H29" s="1">
         <v>2</v>
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>460</v>
+        <v>5300</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>470</v>
+        <v>5500</v>
       </c>
       <c r="H31" s="3">
         <v>2</v>
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>471</v>
+        <v>5700</v>
       </c>
       <c r="H32" s="3">
         <v>3</v>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>472</v>
+        <v>5900</v>
       </c>
       <c r="H33" s="3">
         <v>4</v>
@@ -1979,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>473</v>
+        <v>6100</v>
       </c>
       <c r="H34" s="3">
         <v>5</v>
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="1">
-        <v>474</v>
+        <v>6300</v>
       </c>
       <c r="H35" s="3">
         <v>6</v>
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>475</v>
+        <v>6500</v>
       </c>
       <c r="H36" s="3">
         <v>7</v>
@@ -2048,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>476</v>
+        <v>6700</v>
       </c>
       <c r="H37" s="3">
         <v>8</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>477</v>
+        <v>6900</v>
       </c>
       <c r="H38" s="3">
         <v>9</v>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>478</v>
+        <v>7100</v>
       </c>
       <c r="H39" s="3">
         <v>10</v>
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>479</v>
+        <v>7300</v>
       </c>
       <c r="H40" s="3">
         <v>11</v>
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>480</v>
+        <v>7500</v>
       </c>
       <c r="H41" s="3">
         <v>12</v>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>481</v>
+        <v>7700</v>
       </c>
       <c r="H42" s="3">
         <v>13</v>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>482</v>
+        <v>7900</v>
       </c>
       <c r="H43" s="3">
         <v>14</v>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>483</v>
+        <v>8100</v>
       </c>
       <c r="H44" s="3">
         <v>15</v>
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>484</v>
+        <v>8300</v>
       </c>
       <c r="H45" s="3">
         <v>16</v>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="1">
-        <v>485</v>
+        <v>8500</v>
       </c>
       <c r="H46" s="3">
         <v>17</v>
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="1">
-        <v>486</v>
+        <v>8700</v>
       </c>
       <c r="H47" s="3">
         <v>18</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>487</v>
+        <v>8900</v>
       </c>
       <c r="H48" s="3">
         <v>19</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="1">
-        <v>488</v>
+        <v>9100</v>
       </c>
       <c r="H49" s="3">
         <v>20</v>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>489</v>
+        <v>9300</v>
       </c>
       <c r="H50" s="3">
         <v>21</v>
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>490</v>
+        <v>9500</v>
       </c>
       <c r="H51" s="3">
         <v>22</v>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>491</v>
+        <v>9700</v>
       </c>
       <c r="H52" s="3">
         <v>23</v>
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="1">
-        <v>492</v>
+        <v>9900</v>
       </c>
       <c r="H53" s="3">
         <v>24</v>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="1">
-        <v>493</v>
+        <v>10100</v>
       </c>
       <c r="H54" s="3">
         <v>25</v>
@@ -2462,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="1">
-        <v>494</v>
+        <v>10300</v>
       </c>
       <c r="H55" s="3">
         <v>26</v>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>495</v>
+        <v>10500</v>
       </c>
       <c r="H56" s="3">
         <v>27</v>
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="1">
-        <v>496</v>
+        <v>10700</v>
       </c>
       <c r="H57" s="3">
         <v>28</v>
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="1">
-        <v>497</v>
+        <v>10900</v>
       </c>
       <c r="H58" s="3">
         <v>29</v>
@@ -2554,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="1">
-        <v>498</v>
+        <v>11100</v>
       </c>
       <c r="H59" s="3">
         <v>30</v>
@@ -2577,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="1">
-        <v>499</v>
+        <v>11300</v>
       </c>
       <c r="H60" s="3">
         <v>31</v>
@@ -2600,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="1">
-        <v>500</v>
+        <v>11500</v>
       </c>
       <c r="H61" s="3">
         <v>32</v>
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="1">
-        <v>501</v>
+        <v>11700</v>
       </c>
       <c r="H62" s="3">
         <v>33</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="1">
-        <v>502</v>
+        <v>11900</v>
       </c>
       <c r="H63" s="3">
         <v>34</v>
@@ -2672,7 +2672,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2689,7 +2689,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luaban/Config/Datas/EnemyData.xlsx
+++ b/Luaban/Config/Datas/EnemyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="20">
   <si>
     <t>##</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>NormalEnemy</t>
+  </si>
+  <si>
+    <t>QuickEnemy</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1132,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1137,7 +1140,7 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.8727272727273" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6272727272727" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.9090909090909" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="9.54545454545454" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.7545454545455" style="1" customWidth="1"/>
@@ -1227,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
@@ -1250,19 +1253,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -1273,22 +1276,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:13">

--- a/Luaban/Config/Datas/EnemyData.xlsx
+++ b/Luaban/Config/Datas/EnemyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10730"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>##</t>
   </si>
@@ -39,9 +39,6 @@
     <t>interval</t>
   </si>
   <si>
-    <t>intervalType</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -69,13 +66,13 @@
     <t>出现间隔</t>
   </si>
   <si>
-    <t>生成间隔类型</t>
-  </si>
-  <si>
     <t>NormalEnemy</t>
   </si>
   <si>
     <t>QuickEnemy</t>
+  </si>
+  <si>
+    <t>StrongEnemy</t>
   </si>
 </sst>
 </file>
@@ -1132,25 +1129,25 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.8727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.9090909090909" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.9083333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="9.54545454545454" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7545454545455" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54166666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7583333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="16.5818181818182" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.3363636363636" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5833333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.3333333333333" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,60 +1169,51 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:8">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:7">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1236,7 +1224,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1244,54 +1232,45 @@
       <c r="G4" s="1">
         <v>100</v>
       </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:8">
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:7">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>400</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="2:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:7">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>400</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:13">
@@ -1300,23 +1279,21 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>700</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1329,23 +1306,21 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>900</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1358,23 +1333,21 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>105</v>
+        <v>350</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
+      <c r="F9" s="1">
+        <v>3</v>
       </c>
       <c r="G9" s="1">
-        <v>1100</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="4"/>
       <c r="J9" s="8"/>
       <c r="K9" s="4"/>
@@ -1387,23 +1360,21 @@
         <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="4">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1300</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="4"/>
       <c r="J10" s="8"/>
       <c r="K10" s="4"/>
@@ -1416,23 +1387,21 @@
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
       </c>
       <c r="G11" s="1">
-        <v>1500</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="7"/>
       <c r="K11" s="3"/>
@@ -1444,1216 +1413,282 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
-        <v>108</v>
+        <v>400</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
+      <c r="F12" s="1">
+        <v>3</v>
       </c>
       <c r="G12" s="1">
-        <v>1700</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="2:13">
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1">
-        <v>109</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1900</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
+    <row r="13" s="1" customFormat="1" spans="6:13">
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="2:13">
-      <c r="B14" s="1">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1">
-        <v>110</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2100</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
+    <row r="14" s="1" customFormat="1" spans="6:13">
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="2:13">
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1">
-        <v>111</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2</v>
-      </c>
+    <row r="15" s="1" customFormat="1" spans="6:13">
+      <c r="F15" s="4"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="2:13">
-      <c r="B16" s="1">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
-        <v>112</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2500</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
+    <row r="16" s="1" customFormat="1" spans="6:13">
+      <c r="F16" s="3"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="2:13">
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1">
-        <v>113</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2700</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2</v>
-      </c>
+    <row r="17" s="1" customFormat="1" spans="6:13">
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="2:13">
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1">
-        <v>114</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2900</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
+    <row r="18" s="1" customFormat="1" spans="6:13">
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="2:13">
-      <c r="B19" s="1">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1">
-        <v>115</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3100</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2</v>
-      </c>
+    <row r="19" s="1" customFormat="1" spans="6:13">
+      <c r="F19" s="4"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="2:13">
-      <c r="B20" s="1">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1">
-        <v>116</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>3300</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
+    <row r="20" s="1" customFormat="1" spans="6:13">
+      <c r="F20" s="4"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="2:13">
-      <c r="B21" s="1">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1">
-        <v>117</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>3500</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2</v>
-      </c>
+    <row r="21" s="1" customFormat="1" spans="6:13">
+      <c r="F21" s="3"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="1">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1">
-        <v>118</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3700</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="1">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1">
-        <v>119</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>3900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="1">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1">
-        <v>21</v>
-      </c>
-      <c r="D24" s="1">
-        <v>120</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>4100</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="1">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1">
-        <v>22</v>
-      </c>
-      <c r="D25" s="1">
-        <v>121</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>4300</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="1">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1">
-        <v>23</v>
-      </c>
-      <c r="D26" s="1">
-        <v>122</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4500</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="1">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1">
-        <v>24</v>
-      </c>
-      <c r="D27" s="1">
-        <v>123</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>4700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="1">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1">
-        <v>25</v>
-      </c>
-      <c r="D28" s="1">
-        <v>124</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>4900</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="1">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1">
-        <v>26</v>
-      </c>
-      <c r="D29" s="1">
-        <v>125</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>5100</v>
-      </c>
-      <c r="H29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="1">
-        <v>27</v>
-      </c>
-      <c r="C30" s="1">
-        <v>27</v>
-      </c>
-      <c r="D30" s="1">
-        <v>126</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>5300</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="1">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1">
-        <v>28</v>
-      </c>
-      <c r="D31" s="1">
-        <v>127</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>5500</v>
-      </c>
-      <c r="H31" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="1">
-        <v>29</v>
-      </c>
-      <c r="C32" s="1">
-        <v>29</v>
-      </c>
-      <c r="D32" s="1">
-        <v>128</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>5700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="1">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1">
-        <v>30</v>
-      </c>
-      <c r="D33" s="1">
-        <v>129</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>5900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="1">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1">
-        <v>31</v>
-      </c>
-      <c r="D34" s="1">
-        <v>130</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>6100</v>
-      </c>
-      <c r="H34" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="1">
-        <v>32</v>
-      </c>
-      <c r="C35" s="1">
-        <v>32</v>
-      </c>
-      <c r="D35" s="1">
-        <v>131</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>6300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="1">
-        <v>33</v>
-      </c>
-      <c r="C36" s="1">
-        <v>33</v>
-      </c>
-      <c r="D36" s="1">
-        <v>132</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>6500</v>
-      </c>
-      <c r="H36" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="1">
-        <v>34</v>
-      </c>
-      <c r="C37" s="1">
-        <v>34</v>
-      </c>
-      <c r="D37" s="1">
-        <v>133</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>6700</v>
-      </c>
-      <c r="H37" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="1">
-        <v>35</v>
-      </c>
-      <c r="C38" s="1">
-        <v>35</v>
-      </c>
-      <c r="D38" s="1">
-        <v>134</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>6900</v>
-      </c>
-      <c r="H38" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="1">
-        <v>36</v>
-      </c>
-      <c r="C39" s="1">
-        <v>36</v>
-      </c>
-      <c r="D39" s="1">
-        <v>135</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>7100</v>
-      </c>
-      <c r="H39" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="1">
-        <v>37</v>
-      </c>
-      <c r="C40" s="1">
-        <v>37</v>
-      </c>
-      <c r="D40" s="1">
-        <v>136</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>7300</v>
-      </c>
-      <c r="H40" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="1">
-        <v>38</v>
-      </c>
-      <c r="C41" s="1">
-        <v>38</v>
-      </c>
-      <c r="D41" s="1">
-        <v>137</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>7500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="1">
-        <v>39</v>
-      </c>
-      <c r="C42" s="1">
-        <v>39</v>
-      </c>
-      <c r="D42" s="1">
-        <v>138</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>7700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="1">
-        <v>40</v>
-      </c>
-      <c r="C43" s="1">
-        <v>40</v>
-      </c>
-      <c r="D43" s="1">
-        <v>139</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1">
-        <v>7900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="1">
-        <v>41</v>
-      </c>
-      <c r="C44" s="1">
-        <v>41</v>
-      </c>
-      <c r="D44" s="1">
-        <v>140</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>8100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="1">
-        <v>42</v>
-      </c>
-      <c r="C45" s="1">
-        <v>42</v>
-      </c>
-      <c r="D45" s="1">
-        <v>141</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1">
-        <v>8300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="1">
-        <v>43</v>
-      </c>
-      <c r="C46" s="1">
-        <v>43</v>
-      </c>
-      <c r="D46" s="1">
-        <v>142</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1">
-        <v>8500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="1">
-        <v>44</v>
-      </c>
-      <c r="C47" s="1">
-        <v>44</v>
-      </c>
-      <c r="D47" s="1">
-        <v>143</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1">
-        <v>8700</v>
-      </c>
-      <c r="H47" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="1">
-        <v>45</v>
-      </c>
-      <c r="C48" s="1">
-        <v>45</v>
-      </c>
-      <c r="D48" s="1">
-        <v>144</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1">
-        <v>8900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="1">
-        <v>46</v>
-      </c>
-      <c r="C49" s="1">
-        <v>46</v>
-      </c>
-      <c r="D49" s="1">
-        <v>145</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1">
-        <v>9100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="1">
-        <v>47</v>
-      </c>
-      <c r="C50" s="1">
-        <v>47</v>
-      </c>
-      <c r="D50" s="1">
-        <v>146</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1">
-        <v>9300</v>
-      </c>
-      <c r="H50" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="1">
-        <v>48</v>
-      </c>
-      <c r="C51" s="1">
-        <v>48</v>
-      </c>
-      <c r="D51" s="1">
-        <v>147</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1">
-        <v>9500</v>
-      </c>
-      <c r="H51" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="1">
-        <v>49</v>
-      </c>
-      <c r="C52" s="1">
-        <v>49</v>
-      </c>
-      <c r="D52" s="1">
-        <v>148</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <v>9700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="1">
-        <v>50</v>
-      </c>
-      <c r="C53" s="1">
-        <v>50</v>
-      </c>
-      <c r="D53" s="1">
-        <v>149</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1">
-        <v>9900</v>
-      </c>
-      <c r="H53" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="1">
-        <v>51</v>
-      </c>
-      <c r="C54" s="1">
-        <v>51</v>
-      </c>
-      <c r="D54" s="1">
-        <v>150</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1">
-        <v>10100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="1">
-        <v>52</v>
-      </c>
-      <c r="C55" s="1">
-        <v>52</v>
-      </c>
-      <c r="D55" s="1">
-        <v>151</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1">
-        <v>10300</v>
-      </c>
-      <c r="H55" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="1">
-        <v>53</v>
-      </c>
-      <c r="C56" s="1">
-        <v>53</v>
-      </c>
-      <c r="D56" s="1">
-        <v>152</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="1">
-        <v>10500</v>
-      </c>
-      <c r="H56" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="1">
-        <v>54</v>
-      </c>
-      <c r="C57" s="1">
-        <v>54</v>
-      </c>
-      <c r="D57" s="1">
-        <v>153</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1">
-        <v>10700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="1">
-        <v>55</v>
-      </c>
-      <c r="C58" s="1">
-        <v>55</v>
-      </c>
-      <c r="D58" s="1">
-        <v>154</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="4">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1">
-        <v>10900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="1">
-        <v>56</v>
-      </c>
-      <c r="C59" s="1">
-        <v>56</v>
-      </c>
-      <c r="D59" s="1">
-        <v>155</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1">
-        <v>11100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="1">
-        <v>57</v>
-      </c>
-      <c r="C60" s="1">
-        <v>57</v>
-      </c>
-      <c r="D60" s="1">
-        <v>156</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1">
-        <v>11300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="1">
-        <v>58</v>
-      </c>
-      <c r="C61" s="1">
-        <v>58</v>
-      </c>
-      <c r="D61" s="1">
-        <v>157</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1">
-        <v>11500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="1">
-        <v>59</v>
-      </c>
-      <c r="C62" s="1">
-        <v>59</v>
-      </c>
-      <c r="D62" s="1">
-        <v>158</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="1">
-        <v>11700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="1">
-        <v>60</v>
-      </c>
-      <c r="C63" s="1">
-        <v>60</v>
-      </c>
-      <c r="D63" s="1">
-        <v>159</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="4">
-        <v>1</v>
-      </c>
-      <c r="G63" s="1">
-        <v>11900</v>
-      </c>
-      <c r="H63" s="3">
-        <v>34</v>
-      </c>
+    <row r="22" spans="6:6">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" s="3"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="6:8">
+      <c r="F27" s="3"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="6:8">
+      <c r="F31" s="4"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="6:8">
+      <c r="F32" s="4"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="3"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="3"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="F35" s="3"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="6:8">
+      <c r="F36" s="4"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="6:8">
+      <c r="F37" s="4"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="6:8">
+      <c r="F38" s="3"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="6:8">
+      <c r="F39" s="3"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="6:8">
+      <c r="F40" s="3"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="6:8">
+      <c r="F41" s="4"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="6:8">
+      <c r="F42" s="4"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="6:8">
+      <c r="F43" s="3"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="6:8">
+      <c r="F44" s="3"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="6:8">
+      <c r="F45" s="3"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="6:8">
+      <c r="F46" s="4"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="6:8">
+      <c r="F47" s="4"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="6:8">
+      <c r="F48" s="3"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="6:8">
+      <c r="F49" s="3"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="6:8">
+      <c r="F50" s="3"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="6:8">
+      <c r="F51" s="3"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="6:8">
+      <c r="F52" s="3"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="6:8">
+      <c r="F53" s="4"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="6:8">
+      <c r="F54" s="4"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="6:8">
+      <c r="F55" s="3"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="F56" s="3"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="6:8">
+      <c r="F57" s="3"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="6:8">
+      <c r="F58" s="4"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="6:8">
+      <c r="F59" s="4"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="6:8">
+      <c r="F60" s="3"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="6:8">
+      <c r="F61" s="3"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="6:8">
+      <c r="F62" s="3"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="6:8">
+      <c r="F63" s="4"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2675,7 +1710,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2692,7 +1727,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luaban/Config/Datas/EnemyData.xlsx
+++ b/Luaban/Config/Datas/EnemyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1129,21 +1129,21 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="$A13:$XFD13"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8727272727273" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.9083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.9090909090909" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="9.54166666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7583333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54545454545454" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7545454545455" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="16.5833333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5818181818182" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.3363636363636" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1250,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:7">
@@ -1270,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:13">
@@ -1318,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="3"/>
@@ -1345,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
@@ -1399,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1425,72 +1425,55 @@
         <v>3</v>
       </c>
       <c r="G12" s="1">
-        <v>300</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>100</v>
+      </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="6:13">
       <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="6:13">
       <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="6:13">
       <c r="F15" s="4"/>
-      <c r="G15" s="1"/>
       <c r="H15" s="3"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="6:13">
       <c r="F16" s="3"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="6:13">
       <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="6:13">
       <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="6:13">
       <c r="F19" s="4"/>
-      <c r="G19" s="1"/>
       <c r="H19" s="3"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="6:13">
       <c r="F20" s="4"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="6:13">
       <c r="F21" s="3"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
@@ -1499,7 +1482,6 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" s="3"/>
-      <c r="G23" s="1"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="6:6">
@@ -1513,7 +1495,6 @@
     </row>
     <row r="27" spans="6:8">
       <c r="F27" s="3"/>
-      <c r="G27" s="1"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="6:6">
@@ -1527,167 +1508,134 @@
     </row>
     <row r="31" spans="6:8">
       <c r="F31" s="4"/>
-      <c r="G31" s="1"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" s="4"/>
-      <c r="G32" s="1"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" s="3"/>
-      <c r="G33" s="1"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" s="3"/>
-      <c r="G34" s="1"/>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" s="3"/>
-      <c r="G35" s="1"/>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" s="4"/>
-      <c r="G36" s="1"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" s="4"/>
-      <c r="G37" s="1"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="6:8">
       <c r="F38" s="3"/>
-      <c r="G38" s="1"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="6:8">
       <c r="F39" s="3"/>
-      <c r="G39" s="1"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="6:8">
       <c r="F40" s="3"/>
-      <c r="G40" s="1"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="6:8">
       <c r="F41" s="4"/>
-      <c r="G41" s="1"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="6:8">
       <c r="F42" s="4"/>
-      <c r="G42" s="1"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="6:8">
       <c r="F43" s="3"/>
-      <c r="G43" s="1"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="6:8">
       <c r="F44" s="3"/>
-      <c r="G44" s="1"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="6:8">
       <c r="F45" s="3"/>
-      <c r="G45" s="1"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="6:8">
       <c r="F46" s="4"/>
-      <c r="G46" s="1"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="6:8">
       <c r="F47" s="4"/>
-      <c r="G47" s="1"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="6:8">
       <c r="F48" s="3"/>
-      <c r="G48" s="1"/>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="6:8">
       <c r="F49" s="3"/>
-      <c r="G49" s="1"/>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="6:8">
       <c r="F50" s="3"/>
-      <c r="G50" s="1"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="6:8">
       <c r="F51" s="3"/>
-      <c r="G51" s="1"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="6:8">
       <c r="F52" s="3"/>
-      <c r="G52" s="1"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="6:8">
       <c r="F53" s="4"/>
-      <c r="G53" s="1"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="6:8">
       <c r="F54" s="4"/>
-      <c r="G54" s="1"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="6:8">
       <c r="F55" s="3"/>
-      <c r="G55" s="1"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" s="3"/>
-      <c r="G56" s="1"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="6:8">
       <c r="F57" s="3"/>
-      <c r="G57" s="1"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="6:8">
       <c r="F58" s="4"/>
-      <c r="G58" s="1"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="6:8">
       <c r="F59" s="4"/>
-      <c r="G59" s="1"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="6:8">
       <c r="F60" s="3"/>
-      <c r="G60" s="1"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="6:8">
       <c r="F61" s="3"/>
-      <c r="G61" s="1"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="6:8">
       <c r="F62" s="3"/>
-      <c r="G62" s="1"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="6:8">
       <c r="F63" s="4"/>
-      <c r="G63" s="1"/>
       <c r="H63" s="3"/>
     </row>
   </sheetData>
@@ -1710,7 +1658,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1727,7 +1675,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
